--- a/SCH-STH/Impact assessments/Burkina Faso/2024/oct/bf_2411_sch_ia_4_resultat_urines.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/2024/oct/bf_2411_sch_ia_4_resultat_urines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\2024\oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3072ED96-B07E-4AA2-B853-BACF3D46157E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B9B15D-64E4-4973-A756-58C903DB6E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="199">
   <si>
     <t>type</t>
   </si>
@@ -78,30 +78,9 @@
     <t>yes</t>
   </si>
   <si>
-    <t>select_one drs_list</t>
-  </si>
-  <si>
-    <t>u_drshp</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>select_one ds_list</t>
-  </si>
-  <si>
-    <t>u_district</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
     <t>drs_list = ${u_drshp}</t>
   </si>
   <si>
-    <t>select_one csps_list</t>
-  </si>
-  <si>
     <t>u_csps</t>
   </si>
   <si>
@@ -153,9 +132,6 @@
     <t xml:space="preserve">Le numéro complet de l'enquété </t>
   </si>
   <si>
-    <t>Code operateur_Codesite_numeroEnqueté</t>
-  </si>
-  <si>
     <t>concat(${u_recorder}, '_', ${u_Code_site} ,'_', ${u_Numero_Enquete})</t>
   </si>
   <si>
@@ -525,17 +501,131 @@
     <t>Wada</t>
   </si>
   <si>
-    <t>bf_202403_sch_ia_4_resultat_urines</t>
-  </si>
-  <si>
-    <t>(BF - Mars 2024) impact schisto - 4. Formulaire Results Urines</t>
+    <t>bf_2411_sch_ia_4_resultat_urines</t>
+  </si>
+  <si>
+    <t>(BF - Nov 2024) impact schisto - 4. Formulaire Results Urines</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Commune</t>
+  </si>
+  <si>
+    <t>Nom du village</t>
+  </si>
+  <si>
+    <t>col_4</t>
+  </si>
+  <si>
+    <t>Nom de l'école</t>
+  </si>
+  <si>
+    <t>col_5</t>
+  </si>
+  <si>
+    <t>u_ds</t>
+  </si>
+  <si>
+    <t>u_commune</t>
+  </si>
+  <si>
+    <t>u_Village</t>
+  </si>
+  <si>
+    <t>${u_csps}</t>
+  </si>
+  <si>
+    <t>u_Ecole</t>
+  </si>
+  <si>
+    <t>${u_Village}</t>
+  </si>
+  <si>
+    <t>bind::db_filter_by_col_1</t>
+  </si>
+  <si>
+    <t>bind::db_filter_by_col_2</t>
+  </si>
+  <si>
+    <t>bind::db_filter_by_col_3</t>
+  </si>
+  <si>
+    <t>bind::db_filter_by_col_4</t>
+  </si>
+  <si>
+    <t>bind::db_filter_by_col_5</t>
+  </si>
+  <si>
+    <t>bind::db_get</t>
+  </si>
+  <si>
+    <t>col_1</t>
+  </si>
+  <si>
+    <t>col_2</t>
+  </si>
+  <si>
+    <t>col_3</t>
+  </si>
+  <si>
+    <t>col_6</t>
+  </si>
+  <si>
+    <t>${u_ds}</t>
+  </si>
+  <si>
+    <t>${u_commune}</t>
+  </si>
+  <si>
+    <t>${u_Ecole}</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>begin repeat</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>position(..)</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Urines</t>
+  </si>
+  <si>
+    <t>bf_ia_u_2411</t>
+  </si>
+  <si>
+    <t>join(' ', ${u_Numero_Enquete_complet})</t>
+  </si>
+  <si>
+    <t>if (${C2} = 1,'',substring-after(${C1},${u_Numero_Enquete_complet}))</t>
+  </si>
+  <si>
+    <t>end repeat</t>
+  </si>
+  <si>
+    <t>Cet identifiant a déjà été utilisé dans ce village.</t>
+  </si>
+  <si>
+    <t>not(selected(${C3}, ${u_Numero_Enquete_complet}))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,8 +717,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,8 +768,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFBE4D5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -683,11 +810,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -739,6 +881,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -996,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,15 +1187,18 @@
     <col min="3" max="3" width="57.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" customWidth="1"/>
     <col min="9" max="9" width="33.7109375" customWidth="1"/>
-    <col min="11" max="11" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="29.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1060,8 +1241,26 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1075,29 +1274,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
+        <v>167</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>161</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="T3" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
+        <v>168</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1111,18 +1313,24 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1133,227 +1341,426 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="T5" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="28"/>
+      <c r="Q6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="T6" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="28"/>
+      <c r="R7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T7" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="S8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="T8" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+    </row>
+    <row r="10" spans="1:20" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" spans="1:20" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+    </row>
+    <row r="12" spans="1:20" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="F14" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="G14" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
-      <c r="N9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+    </row>
+    <row r="15" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+    </row>
+    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B15" t="s">
+      <c r="H19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1379,7 +1786,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
@@ -1388,124 +1795,124 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
         <v>71</v>
       </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1513,68 +1920,68 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>93</v>
-      </c>
       <c r="C19" s="14" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1582,24 +1989,24 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -1611,86 +2018,86 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -1698,956 +2105,956 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E48" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E51" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E54" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E55" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E57" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E59" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
     </row>
     <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E60" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
     </row>
     <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E63" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E64" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F64" s="22"/>
       <c r="G64" s="22"/>
     </row>
     <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E65" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F65" s="22"/>
       <c r="G65" s="22"/>
     </row>
     <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E66" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
     </row>
     <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E67" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E68" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E69" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F69" s="22"/>
       <c r="G69" s="22"/>
     </row>
     <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C70" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F70" s="22"/>
       <c r="G70" s="22"/>
     </row>
     <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E71" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F71" s="22"/>
       <c r="G71" s="22"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F72" s="22"/>
       <c r="G72" s="22"/>
     </row>
     <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E73" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E74" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F74" s="22"/>
       <c r="G74" s="22"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E75" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F75" s="22"/>
       <c r="G75" s="22"/>
     </row>
     <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E76" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
     </row>
     <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E77" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
     </row>
     <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E78" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F78" s="22"/>
       <c r="G78" s="22"/>
     </row>
     <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C79" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E79" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>
     </row>
     <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E80" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F80" s="22"/>
       <c r="G80" s="22"/>
     </row>
     <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C81" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E81" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F81" s="22"/>
       <c r="G81" s="22"/>
     </row>
     <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E82" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
     </row>
     <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C83" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E83" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F83" s="22"/>
       <c r="G83" s="22"/>
     </row>
     <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C84" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E84" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F84" s="22"/>
       <c r="G84" s="22"/>
     </row>
     <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C85" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E85" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F85" s="22"/>
       <c r="G85" s="22"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C86" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E86" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F86" s="22"/>
       <c r="G86" s="22"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C87" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E87" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F87" s="22"/>
       <c r="G87" s="22"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C88" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E88" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C89" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E89" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E90" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2712,7 +3119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2726,27 +3133,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>

--- a/SCH-STH/Impact assessments/Burkina Faso/2024/oct/bf_2411_sch_ia_4_resultat_urines.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/2024/oct/bf_2411_sch_ia_4_resultat_urines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\2024\oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B9B15D-64E4-4973-A756-58C903DB6E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E012829-EECD-49C5-B7D6-A7147CF1E65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="132">
   <si>
     <t>type</t>
   </si>
@@ -282,9 +282,6 @@
     <t xml:space="preserve"> 6_( +++)</t>
   </si>
   <si>
-    <t>csps_list</t>
-  </si>
-  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -301,204 +298,6 @@
   </si>
   <si>
     <t>Nombre d'œufs pour la lame (œufs/10ml)</t>
-  </si>
-  <si>
-    <t>Centre-Est</t>
-  </si>
-  <si>
-    <t>Plateau Central</t>
-  </si>
-  <si>
-    <t>Garango</t>
-  </si>
-  <si>
-    <t>Pouytenga</t>
-  </si>
-  <si>
-    <t>Tenkodogo</t>
-  </si>
-  <si>
-    <t>Boussé</t>
-  </si>
-  <si>
-    <t>Ziniaré</t>
-  </si>
-  <si>
-    <t>Zorgho</t>
-  </si>
-  <si>
-    <t>Bantogdo</t>
-  </si>
-  <si>
-    <t>Koui</t>
-  </si>
-  <si>
-    <t>Laye</t>
-  </si>
-  <si>
-    <t>Napalgué</t>
-  </si>
-  <si>
-    <t>Niou</t>
-  </si>
-  <si>
-    <t>Sandogo Srg</t>
-  </si>
-  <si>
-    <t>Sao</t>
-  </si>
-  <si>
-    <t>Sourgoubila</t>
-  </si>
-  <si>
-    <t>Toeghin</t>
-  </si>
-  <si>
-    <t>Urbain Boussé</t>
-  </si>
-  <si>
-    <t>Boussouma</t>
-  </si>
-  <si>
-    <t>Dango</t>
-  </si>
-  <si>
-    <t>Fingla</t>
-  </si>
-  <si>
-    <t>Kombinatenga</t>
-  </si>
-  <si>
-    <t>Lengha</t>
-  </si>
-  <si>
-    <t>Niaogho 1</t>
-  </si>
-  <si>
-    <t>Ouarégou</t>
-  </si>
-  <si>
-    <t>Sanogho</t>
-  </si>
-  <si>
-    <t>Toécé</t>
-  </si>
-  <si>
-    <t>Ziglakoulpélé</t>
-  </si>
-  <si>
-    <t>Balkiou</t>
-  </si>
-  <si>
-    <t>Belme</t>
-  </si>
-  <si>
-    <t>Bougretenga</t>
-  </si>
-  <si>
-    <t>Kalwartenga</t>
-  </si>
-  <si>
-    <t>Kando</t>
-  </si>
-  <si>
-    <t>Kodemende</t>
-  </si>
-  <si>
-    <t>Mobega</t>
-  </si>
-  <si>
-    <t>Natenga</t>
-  </si>
-  <si>
-    <t>Pissy</t>
-  </si>
-  <si>
-    <t>Bagre Village</t>
-  </si>
-  <si>
-    <t>Bissiga</t>
-  </si>
-  <si>
-    <t>Cmu</t>
-  </si>
-  <si>
-    <t>Godin</t>
-  </si>
-  <si>
-    <t>Loanga Cella</t>
-  </si>
-  <si>
-    <t>Moaga</t>
-  </si>
-  <si>
-    <t>Sabtenga</t>
-  </si>
-  <si>
-    <t>Urbain I</t>
-  </si>
-  <si>
-    <t>Urbain Ii</t>
-  </si>
-  <si>
-    <t>Urbain Iii</t>
-  </si>
-  <si>
-    <t>Tampaongo</t>
-  </si>
-  <si>
-    <t>Dispensaire Moutti</t>
-  </si>
-  <si>
-    <t>Donsin</t>
-  </si>
-  <si>
-    <t>Kolokom</t>
-  </si>
-  <si>
-    <t>Laongo</t>
-  </si>
-  <si>
-    <t>Nioniogo</t>
-  </si>
-  <si>
-    <t>Ourgou</t>
-  </si>
-  <si>
-    <t>Sadaba</t>
-  </si>
-  <si>
-    <t>Sawana</t>
-  </si>
-  <si>
-    <t>Urbain</t>
-  </si>
-  <si>
-    <t>Meguet</t>
-  </si>
-  <si>
-    <t>Mogtedo</t>
-  </si>
-  <si>
-    <t>Bourma</t>
-  </si>
-  <si>
-    <t>Dawaka</t>
-  </si>
-  <si>
-    <t>Koumséogo</t>
-  </si>
-  <si>
-    <t>Rapadama Ud</t>
-  </si>
-  <si>
-    <t>Sankuissi</t>
-  </si>
-  <si>
-    <t>Talembika</t>
-  </si>
-  <si>
-    <t>Wada</t>
   </si>
   <si>
     <t>bf_2411_sch_ia_4_resultat_urines</t>
@@ -829,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -872,10 +671,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1194,8 +989,8 @@
     <col min="11" max="11" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="29.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="29.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -1242,22 +1037,22 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -1279,16 +1074,16 @@
         <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>161</v>
+        <v>100</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="25" t="s">
-        <v>179</v>
+      <c r="T3" s="23" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -1296,10 +1091,10 @@
         <v>25</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>162</v>
+        <v>101</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1315,21 +1110,21 @@
       <c r="M4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="T4" s="25" t="s">
-        <v>180</v>
+      <c r="O4" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="T4" s="23" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="5"/>
@@ -1343,22 +1138,22 @@
       <c r="M5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="T5" s="25" t="s">
-        <v>181</v>
+      <c r="P5" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="T5" s="23" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1371,23 +1166,23 @@
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="28"/>
+      <c r="M6" s="26"/>
       <c r="Q6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="T6" s="25" t="s">
-        <v>164</v>
+        <v>103</v>
+      </c>
+      <c r="T6" s="23" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1400,12 +1195,12 @@
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="28"/>
+      <c r="M7" s="26"/>
       <c r="R7" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="T7" s="25" t="s">
-        <v>166</v>
+        <v>105</v>
+      </c>
+      <c r="T7" s="23" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
@@ -1432,96 +1227,96 @@
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
       <c r="S8" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="T8" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-    </row>
-    <row r="10" spans="1:20" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="37"/>
-    </row>
-    <row r="11" spans="1:20" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-    </row>
-    <row r="12" spans="1:20" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
+        <v>118</v>
+      </c>
+      <c r="T8" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+    </row>
+    <row r="10" spans="1:20" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="35"/>
+    </row>
+    <row r="11" spans="1:20" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+    </row>
+    <row r="12" spans="1:20" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1540,12 +1335,12 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="6"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1566,12 +1361,12 @@
       <c r="J14" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
     </row>
     <row r="15" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1584,10 +1379,10 @@
         <v>35</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>36</v>
@@ -1601,12 +1396,12 @@
       <c r="N15" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1621,12 +1416,12 @@
       <c r="J16" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
     </row>
     <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1703,8 +1498,8 @@
       <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>92</v>
+      <c r="C21" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>51</v>
@@ -1725,23 +1520,23 @@
       </c>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
+    <row r="23" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1770,7 +1565,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21:XFD90"/>
@@ -1987,1127 +1782,57 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" t="s">
-        <v>95</v>
-      </c>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" t="s">
-        <v>117</v>
-      </c>
-      <c r="E47" t="s">
-        <v>95</v>
-      </c>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" t="s">
-        <v>118</v>
-      </c>
-      <c r="E48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" t="s">
-        <v>119</v>
-      </c>
-      <c r="E49" t="s">
-        <v>95</v>
-      </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E50" t="s">
-        <v>95</v>
-      </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" t="s">
-        <v>96</v>
-      </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" t="s">
-        <v>96</v>
-      </c>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" t="s">
-        <v>124</v>
-      </c>
-      <c r="E54" t="s">
-        <v>96</v>
-      </c>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>86</v>
-      </c>
-      <c r="B55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" t="s">
-        <v>96</v>
-      </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E56" t="s">
-        <v>96</v>
-      </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>86</v>
-      </c>
-      <c r="B57" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" t="s">
-        <v>127</v>
-      </c>
-      <c r="E57" t="s">
-        <v>96</v>
-      </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" t="s">
-        <v>96</v>
-      </c>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" t="s">
-        <v>129</v>
-      </c>
-      <c r="E59" t="s">
-        <v>96</v>
-      </c>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>86</v>
-      </c>
-      <c r="B60" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" t="s">
-        <v>96</v>
-      </c>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>86</v>
-      </c>
-      <c r="B61" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" t="s">
-        <v>130</v>
-      </c>
-      <c r="E61" t="s">
-        <v>97</v>
-      </c>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>86</v>
-      </c>
-      <c r="B62" t="s">
-        <v>131</v>
-      </c>
-      <c r="C62" t="s">
-        <v>131</v>
-      </c>
-      <c r="E62" t="s">
-        <v>97</v>
-      </c>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>86</v>
-      </c>
-      <c r="B63" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" t="s">
-        <v>132</v>
-      </c>
-      <c r="E63" t="s">
-        <v>97</v>
-      </c>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>86</v>
-      </c>
-      <c r="B64" t="s">
-        <v>133</v>
-      </c>
-      <c r="C64" t="s">
-        <v>133</v>
-      </c>
-      <c r="E64" t="s">
-        <v>97</v>
-      </c>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" t="s">
-        <v>97</v>
-      </c>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>86</v>
-      </c>
-      <c r="B66" t="s">
-        <v>135</v>
-      </c>
-      <c r="C66" t="s">
-        <v>135</v>
-      </c>
-      <c r="E66" t="s">
-        <v>97</v>
-      </c>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" t="s">
-        <v>136</v>
-      </c>
-      <c r="E67" t="s">
-        <v>97</v>
-      </c>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" t="s">
-        <v>137</v>
-      </c>
-      <c r="C68" t="s">
-        <v>137</v>
-      </c>
-      <c r="E68" t="s">
-        <v>97</v>
-      </c>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" t="s">
-        <v>138</v>
-      </c>
-      <c r="E69" t="s">
-        <v>97</v>
-      </c>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" t="s">
-        <v>139</v>
-      </c>
-      <c r="C70" t="s">
-        <v>139</v>
-      </c>
-      <c r="E70" t="s">
-        <v>97</v>
-      </c>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>86</v>
-      </c>
-      <c r="B71" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" t="s">
-        <v>141</v>
-      </c>
-      <c r="E71" t="s">
-        <v>99</v>
-      </c>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>86</v>
-      </c>
-      <c r="B72" t="s">
-        <v>142</v>
-      </c>
-      <c r="C72" t="s">
-        <v>142</v>
-      </c>
-      <c r="E72" t="s">
-        <v>99</v>
-      </c>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" t="s">
-        <v>143</v>
-      </c>
-      <c r="C73" t="s">
-        <v>143</v>
-      </c>
-      <c r="E73" t="s">
-        <v>99</v>
-      </c>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>86</v>
-      </c>
-      <c r="B74" t="s">
-        <v>144</v>
-      </c>
-      <c r="C74" t="s">
-        <v>144</v>
-      </c>
-      <c r="E74" t="s">
-        <v>99</v>
-      </c>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>86</v>
-      </c>
-      <c r="B75" t="s">
-        <v>145</v>
-      </c>
-      <c r="C75" t="s">
-        <v>145</v>
-      </c>
-      <c r="E75" t="s">
-        <v>99</v>
-      </c>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>86</v>
-      </c>
-      <c r="B76" t="s">
-        <v>146</v>
-      </c>
-      <c r="C76" t="s">
-        <v>146</v>
-      </c>
-      <c r="E76" t="s">
-        <v>99</v>
-      </c>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>86</v>
-      </c>
-      <c r="B77" t="s">
-        <v>147</v>
-      </c>
-      <c r="C77" t="s">
-        <v>147</v>
-      </c>
-      <c r="E77" t="s">
-        <v>99</v>
-      </c>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>86</v>
-      </c>
-      <c r="B78" t="s">
-        <v>148</v>
-      </c>
-      <c r="C78" t="s">
-        <v>148</v>
-      </c>
-      <c r="E78" t="s">
-        <v>99</v>
-      </c>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79" t="s">
-        <v>140</v>
-      </c>
-      <c r="E79" t="s">
-        <v>99</v>
-      </c>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>86</v>
-      </c>
-      <c r="B80" t="s">
-        <v>149</v>
-      </c>
-      <c r="C80" t="s">
-        <v>149</v>
-      </c>
-      <c r="E80" t="s">
-        <v>99</v>
-      </c>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-    </row>
-    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" t="s">
-        <v>152</v>
-      </c>
-      <c r="C81" t="s">
-        <v>152</v>
-      </c>
-      <c r="E81" t="s">
-        <v>100</v>
-      </c>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-    </row>
-    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" t="s">
-        <v>153</v>
-      </c>
-      <c r="E82" t="s">
-        <v>100</v>
-      </c>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-    </row>
-    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" t="s">
-        <v>154</v>
-      </c>
-      <c r="C83" t="s">
-        <v>154</v>
-      </c>
-      <c r="E83" t="s">
-        <v>100</v>
-      </c>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-    </row>
-    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" t="s">
-        <v>150</v>
-      </c>
-      <c r="C84" t="s">
-        <v>150</v>
-      </c>
-      <c r="E84" t="s">
-        <v>100</v>
-      </c>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" t="s">
-        <v>151</v>
-      </c>
-      <c r="C85" t="s">
-        <v>151</v>
-      </c>
-      <c r="E85" t="s">
-        <v>100</v>
-      </c>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-    </row>
-    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>155</v>
-      </c>
-      <c r="C86" t="s">
-        <v>155</v>
-      </c>
-      <c r="E86" t="s">
-        <v>100</v>
-      </c>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-    </row>
-    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>156</v>
-      </c>
-      <c r="C87" t="s">
-        <v>156</v>
-      </c>
-      <c r="E87" t="s">
-        <v>100</v>
-      </c>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>157</v>
-      </c>
-      <c r="C88" t="s">
-        <v>157</v>
-      </c>
-      <c r="E88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>86</v>
-      </c>
-      <c r="B89" t="s">
-        <v>158</v>
-      </c>
-      <c r="C89" t="s">
-        <v>158</v>
-      </c>
-      <c r="E89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>86</v>
-      </c>
-      <c r="B90" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90" t="s">
-        <v>100</v>
-      </c>
-      <c r="E90" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-    </row>
-    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-    </row>
-    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-    </row>
-    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-    </row>
-    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-    </row>
-    <row r="97" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-    </row>
-    <row r="98" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-    </row>
-    <row r="99" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-    </row>
-    <row r="100" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-    </row>
-    <row r="101" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-    </row>
-    <row r="102" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F102" s="22"/>
-      <c r="G102" s="22"/>
-    </row>
-    <row r="103" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3133,27 +1858,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>91</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>

--- a/SCH-STH/Impact assessments/Burkina Faso/2024/oct/bf_2411_sch_ia_4_resultat_urines.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/2024/oct/bf_2411_sch_ia_4_resultat_urines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\2024\oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E012829-EECD-49C5-B7D6-A7147CF1E65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9981F96-F193-4042-9C7C-BF274DB4E75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -300,12 +300,6 @@
     <t>Nombre d'œufs pour la lame (œufs/10ml)</t>
   </si>
   <si>
-    <t>bf_2411_sch_ia_4_resultat_urines</t>
-  </si>
-  <si>
-    <t>(BF - Nov 2024) impact schisto - 4. Formulaire Results Urines</t>
-  </si>
-  <si>
     <t>DS</t>
   </si>
   <si>
@@ -402,9 +396,6 @@
     <t>Urines</t>
   </si>
   <si>
-    <t>bf_ia_u_2411</t>
-  </si>
-  <si>
     <t>join(' ', ${u_Numero_Enquete_complet})</t>
   </si>
   <si>
@@ -418,17 +409,33 @@
   </si>
   <si>
     <t>not(selected(${C3}, ${u_Numero_Enquete_complet}))</t>
+  </si>
+  <si>
+    <t>bf_ia_u_2411_2</t>
+  </si>
+  <si>
+    <t>(BF - Nov 2024) impact schisto - 4. Formulaire Results Urines V2</t>
+  </si>
+  <si>
+    <t>bf_2411_sch_ia_4_resultat_urines_v2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -630,10 +637,10 @@
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -642,76 +649,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -971,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,8 +996,8 @@
     <col min="11" max="11" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="29.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="29.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -1037,22 +1044,22 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -1074,16 +1081,16 @@
         <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="23" t="s">
-        <v>112</v>
+      <c r="T3" s="22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -1091,10 +1098,10 @@
         <v>25</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1110,21 +1117,21 @@
       <c r="M4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="T4" s="23" t="s">
-        <v>113</v>
+      <c r="O4" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="T4" s="22" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="5"/>
@@ -1138,22 +1145,22 @@
       <c r="M5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="T5" s="23" t="s">
-        <v>114</v>
+      <c r="P5" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1166,23 +1173,23 @@
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="26"/>
+      <c r="M6" s="25"/>
       <c r="Q6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="T6" s="23" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+      <c r="T6" s="22" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1195,12 +1202,12 @@
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="26"/>
+      <c r="M7" s="25"/>
       <c r="R7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="T7" s="23" t="s">
-        <v>99</v>
+        <v>103</v>
+      </c>
+      <c r="T7" s="22" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
@@ -1227,96 +1234,96 @@
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
       <c r="S8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="T8" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="T8" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="1:20" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B10" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="34"/>
+    </row>
+    <row r="11" spans="1:20" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-    </row>
-    <row r="10" spans="1:20" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="32" t="s">
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="1:20" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="35"/>
-    </row>
-    <row r="11" spans="1:20" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-    </row>
-    <row r="12" spans="1:20" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1335,12 +1342,12 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="6"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1361,12 +1368,12 @@
       <c r="J14" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
     </row>
     <row r="15" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1379,10 +1386,10 @@
         <v>35</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>36</v>
@@ -1396,12 +1403,12 @@
       <c r="N15" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1416,12 +1423,12 @@
       <c r="J16" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
     </row>
     <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1520,23 +1527,23 @@
       </c>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
+    <row r="23" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1844,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,11 +1878,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>93</v>
+      <c r="A2" s="36" t="s">
+        <v>130</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>90</v>
